--- a/src/main/java/work/doc/工作日志与配置.xlsx
+++ b/src/main/java/work/doc/工作日志与配置.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="874">
   <si>
     <t>https://cf.jd.com/pages/viewpage.action?pageId=220250572</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4347,10 +4347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.17.234.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20201224-周会(营销活动)-同步事项：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4472,9 +4468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.20.62.102</t>
-  </si>
-  <si>
     <t>2.1) 需求分析，概要设计：jimdb、ducc、需求确认点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4683,10 +4676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.1、后台任务，保存店铺任务，校验店铺id不能为非数字类型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.1、监控项目运行情况，统计小金库每日的转入数据发送给业务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4695,11 +4684,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、明星守护复用 。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1、部署预发环境提供给前端调用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、明星守护复用：部署预发环境，提供给前端进行调用。目前：因产品和业务确认有需求变更风险，目前项目暂停。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2、因产品和业务确认有需求变更风险，目前项目暂停。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、运营商盲盒活动：和产品、前端、测试进行需求初评。目前：已初评。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、线下超体签到活动(随机优惠券)：和产品、前端、测试进行需求初评。目前：已初评。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1、后台任务bug解决，保存店铺任务，校验店铺id不能为非数字类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1、需求初评：增加2种奖品类型：调用运营商jsf接口增加积分(新接口2天)、运营商奖品(1天)、兑换码(1天)、验签(0.5)、设计(0.5)、联调1天，合计6天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.17.234.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5396,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5454,7 +5471,7 @@
         <v>44228</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -5469,7 +5486,7 @@
     <row r="3" spans="1:12" s="22" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="48" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -5484,7 +5501,7 @@
     <row r="4" spans="1:12" s="22" customFormat="1" ht="26">
       <c r="A4" s="2"/>
       <c r="B4" s="48" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -5499,7 +5516,7 @@
     <row r="5" spans="1:12" s="22" customFormat="1">
       <c r="A5" s="2"/>
       <c r="B5" s="48" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -5514,7 +5531,7 @@
     <row r="6" spans="1:12" s="22" customFormat="1">
       <c r="A6" s="2"/>
       <c r="B6" s="48" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -5529,7 +5546,7 @@
     <row r="7" spans="1:12" s="22" customFormat="1">
       <c r="A7" s="2"/>
       <c r="B7" s="48" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -5544,7 +5561,7 @@
     <row r="8" spans="1:12" s="22" customFormat="1">
       <c r="A8" s="2"/>
       <c r="B8" s="48" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -5556,111 +5573,153 @@
       <c r="K8" s="13"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2">
-        <v>44229</v>
-      </c>
+    <row r="9" spans="1:12" s="22" customFormat="1">
+      <c r="A9" s="2"/>
       <c r="B9" s="48" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2">
-        <v>44230</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="7"/>
+      <c r="H9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" s="22" customFormat="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="48" t="s">
+        <v>871</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="7"/>
+      <c r="H10"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>44231</v>
+        <v>44229</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>44232</v>
+        <v>44230</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>44233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2">
-        <v>44234</v>
+        <v>44231</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="26">
+      <c r="A14" s="2"/>
+      <c r="B14" s="48" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>44235</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
-        <v>44236</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2">
-        <v>44237</v>
+        <v>44234</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2">
-        <v>44238</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2">
-        <v>44239</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2">
-        <v>44240</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2">
-        <v>44241</v>
+        <v>44238</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2">
-        <v>44242</v>
+        <v>44239</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2">
-        <v>44243</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2">
-        <v>44244</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2">
-        <v>44245</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2">
-        <v>44246</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2">
-        <v>44247</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2">
-        <v>44248</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2">
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2">
         <v>44249</v>
       </c>
     </row>
@@ -5674,10 +5733,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5825,7 +5884,7 @@
         <v>538</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="37" customFormat="1">
@@ -5899,14 +5958,12 @@
     <row r="13" spans="1:8">
       <c r="A13" s="53"/>
       <c r="C13" s="37" t="s">
-        <v>475</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
         <v>780</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>781</v>
-      </c>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="53" t="s">
@@ -5942,57 +5999,62 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="53"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>812</v>
-      </c>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="53" t="s">
-        <v>620</v>
-      </c>
+      <c r="A17" s="53"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="37" t="s">
         <v>475</v>
       </c>
       <c r="D17" t="s">
+        <v>780</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="53" t="s">
+        <v>620</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" t="s">
         <v>483</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E18" s="38" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="53"/>
-      <c r="C18" s="37"/>
-      <c r="E18" s="38" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="53"/>
+      <c r="C19" s="37"/>
+      <c r="E19" s="38" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="39" t="s">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="39" t="s">
         <v>621</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B20" s="52" t="s">
         <v>600</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C20" s="54" t="s">
         <v>599</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D20" s="52" t="s">
         <v>483</v>
       </c>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="B20" s="52"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="52"/>
       <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
@@ -6007,28 +6069,23 @@
       <c r="D22" s="52"/>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="B23" s="52"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="53" t="s">
         <v>622</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="40" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="53"/>
       <c r="B24" s="41" t="s">
         <v>485</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6039,7 +6096,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6050,106 +6107,109 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="40" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="53"/>
       <c r="B27" s="41" t="s">
         <v>485</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>523</v>
-      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="40" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="53"/>
-      <c r="B28" t="s">
+      <c r="B28" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="A29" s="53"/>
+      <c r="B29" t="s">
         <v>503</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="D28" t="s">
-        <v>477</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="B29" s="37"/>
       <c r="C29" s="37" t="s">
         <v>475</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>521</v>
+        <v>477</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="39" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37" t="s">
+        <v>475</v>
       </c>
       <c r="D30" t="s">
-        <v>636</v>
+        <v>304</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="D31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E32" s="36" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="E32" s="36" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="E33" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="E34" s="36" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="E35" s="36" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14" customHeight="1">
-      <c r="A35" s="39" t="s">
+    <row r="36" spans="1:7" ht="14" customHeight="1">
+      <c r="A36" s="39" t="s">
         <v>626</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B36" s="52" t="s">
         <v>598</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C36" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D36" s="52" t="s">
         <v>479</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E36" s="36" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14" customHeight="1">
-      <c r="B36" s="52"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="36" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" customHeight="1">
@@ -6157,7 +6217,7 @@
       <c r="C37" s="54"/>
       <c r="D37" s="52"/>
       <c r="E37" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14" customHeight="1">
@@ -6165,57 +6225,54 @@
       <c r="C38" s="54"/>
       <c r="D38" s="52"/>
       <c r="E38" s="36" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14" customHeight="1">
+      <c r="B39" s="52"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="36" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14" customHeight="1">
-      <c r="A39" s="39" t="s">
+    <row r="40" spans="1:7" ht="14" customHeight="1">
+      <c r="A40" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C40" s="42" t="s">
         <v>599</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D40" s="36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5" thickBot="1">
-      <c r="A40" s="39" t="s">
+    <row r="41" spans="1:7" ht="15.5" thickBot="1">
+      <c r="A41" s="39" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.5" customHeight="1" thickBot="1">
-      <c r="A41" s="39" t="s">
+    <row r="42" spans="1:7" ht="15.5" customHeight="1" thickBot="1">
+      <c r="A42" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>610</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C42" s="54" t="s">
         <v>599</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D42" s="55" t="s">
         <v>637</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>608</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F42" s="43" t="s">
         <v>601</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G42" s="37" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.5" thickBot="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="56"/>
-      <c r="E42" t="s">
-        <v>604</v>
-      </c>
-      <c r="F42" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.5" thickBot="1">
@@ -6223,63 +6280,74 @@
       <c r="C43" s="54"/>
       <c r="D43" s="56"/>
       <c r="E43" t="s">
-        <v>606</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>604</v>
+      </c>
+      <c r="F43" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.5" thickBot="1">
       <c r="B44" s="52"/>
       <c r="C44" s="54"/>
       <c r="D44" s="56"/>
       <c r="E44" t="s">
+        <v>606</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" s="52"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="56"/>
+      <c r="E45" t="s">
         <v>607</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F45" s="38" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="37" customFormat="1" ht="120">
-      <c r="A45" s="39" t="s">
+    <row r="46" spans="1:7" s="37" customFormat="1" ht="120">
+      <c r="A46" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B46" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C46" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D46" s="37" t="s">
         <v>500</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E46" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G46" s="37" t="s">
         <v>505</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A24:A29"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10144,31 +10212,31 @@
         <v>44200</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2"/>
       <c r="B6" s="48" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2"/>
       <c r="B7" s="48" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2"/>
       <c r="B8" s="48" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2"/>
       <c r="B9" s="48" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -10176,7 +10244,7 @@
         <v>44201</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -10184,7 +10252,7 @@
         <v>44202</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -10192,13 +10260,13 @@
         <v>44203</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2"/>
       <c r="B13" s="48" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -10206,19 +10274,19 @@
         <v>44204</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2"/>
       <c r="B15" s="48" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2"/>
       <c r="B16" s="48" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10238,31 +10306,31 @@
         <v>44207</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2"/>
       <c r="B20" s="48" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2"/>
       <c r="B21" s="48" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2"/>
       <c r="B22" s="48" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>
       <c r="B23" s="48" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -10270,31 +10338,31 @@
         <v>44208</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2"/>
       <c r="B25" s="48" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2"/>
       <c r="B26" s="48" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2"/>
       <c r="B27" s="48" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2"/>
       <c r="B28" s="48" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10302,13 +10370,13 @@
         <v>44209</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2"/>
       <c r="B30" s="22" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -10316,18 +10384,18 @@
         <v>44210</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2"/>
       <c r="B32" s="22" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" s="22" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -10335,13 +10403,13 @@
         <v>44211</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2"/>
       <c r="B35" s="22" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -10361,31 +10429,31 @@
         <v>44214</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2"/>
       <c r="B39" s="48" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2"/>
       <c r="B40" s="48" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2"/>
       <c r="B41" s="48" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2"/>
       <c r="B42" s="48" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -10393,19 +10461,19 @@
         <v>44215</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2"/>
       <c r="B44" s="48" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2"/>
       <c r="B45" s="48" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -10413,7 +10481,7 @@
         <v>44216</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -10421,7 +10489,7 @@
         <v>44217</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -10429,7 +10497,7 @@
         <v>44218</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -10449,37 +10517,37 @@
         <v>44221</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2"/>
       <c r="B52" s="48" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="26">
       <c r="A53" s="2"/>
       <c r="B53" s="48" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="26">
       <c r="A54" s="2"/>
       <c r="B54" s="48" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2"/>
       <c r="B55" s="48" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2"/>
       <c r="B56" s="48" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="26">
@@ -10487,7 +10555,7 @@
         <v>44222</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -10495,7 +10563,7 @@
         <v>44223</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -10503,13 +10571,13 @@
         <v>44224</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2"/>
       <c r="B60" s="48" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -10517,7 +10585,7 @@
         <v>44225</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -10698,7 +10766,7 @@
         <v>695</v>
       </c>
       <c r="K2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12082,19 +12150,19 @@
         <v>44186</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2"/>
       <c r="B43" s="48" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2"/>
       <c r="B44" s="48" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -12102,7 +12170,7 @@
         <v>44187</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -12110,7 +12178,7 @@
         <v>44188</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -12118,13 +12186,13 @@
         <v>44189</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2"/>
       <c r="B48" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -12132,31 +12200,31 @@
         <v>44190</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2"/>
       <c r="B50" s="48" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2"/>
       <c r="B51" s="48" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2"/>
       <c r="B52" s="48" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2"/>
       <c r="B53" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -12176,25 +12244,25 @@
         <v>44193</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2"/>
       <c r="B57" s="48" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2"/>
       <c r="B58" s="48" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2"/>
       <c r="B59" s="48" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -12202,19 +12270,19 @@
         <v>44194</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2"/>
       <c r="B61" s="48" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2"/>
       <c r="B62" s="48" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -12222,13 +12290,13 @@
         <v>44195</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2"/>
       <c r="B64" s="48" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -12236,19 +12304,19 @@
         <v>44196</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2"/>
       <c r="B66" s="48" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2"/>
       <c r="B67" s="48" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -12343,22 +12411,22 @@
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
